--- a/biology/Botanique/Cultivars_de_roses_portant_des_noms_de_célébrités/Cultivars_de_roses_portant_des_noms_de_célébrités.xlsx
+++ b/biology/Botanique/Cultivars_de_roses_portant_des_noms_de_célébrités/Cultivars_de_roses_portant_des_noms_de_célébrités.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,11 +550,13 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>ʽMrs Aaron Ward’ (1907, Pernet-Ducher)
 ʽAbraham Darby’ (1985, David Austin, Angleterre)
-ʽAbraham Lincoln’, dédiée à Abraham Lincoln[1]
+ʽAbraham Lincoln’, dédiée à Abraham Lincoln
 ‘Adélaïde d'Orléans’ (1826, Jacques)
 ʽAlain Souchon’ (2005, Meilland), dédiée à Alain Souchon
 ʽAlexandre Dumas’ (1861, Margottin), dédiée à Alexandre Dumas
@@ -575,7 +589,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -593,7 +607,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>ʽBarbara’ (1997, Meilland) avec le contour des pétales noir, dédiée à Barbara.
 ʽBarbra Streisand’ (Weeks Roses), dédiée à Barbra Streisand
@@ -618,7 +634,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -636,11 +652,13 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>ʽCamille Bernardin’ (1865, Gautreau)
 ʽCamille Pissaro’ (1996, Delbard)
-ʽCardinal de Richelieu’, rosier de Provins, (1840, Laffay), rouge pourpre foncé[2], dédiée au cardinal de Richelieu
+ʽCardinal de Richelieu’, rosier de Provins, (1840, Laffay), rouge pourpre foncé, dédiée au cardinal de Richelieu
 ʽPrincesse Caroline de Monaco’ (1988, Meilland)
 ʽBaronne Caroline de Rothschild’ (1868, Jean Pernet, père), dédiée à Caroline Julie Anselme von Rothschild
 ʽCary Grant’ (1987, Meilland), dédiée à Cary Grant
@@ -651,7 +669,7 @@
 ʽCharles de Gaulle’ (1974, Meilland) dédiée au général de Gaulle
 ʽCharles Dickens’ (1886, Paul, Angleterre), dédiée à Charles Dickens
 ʽCharles Rennie Mackintosh’ (1988, David Austin, Angleterre), dédiée à Charles Rennie Mackintosh
-ʽCharlotte Rampling’ (1987, Meilland), dédiée à Charlotte Rampling[3]
+ʽCharlotte Rampling’ (1987, Meilland), dédiée à Charlotte Rampling
 ʽChopin’ (1980, Żyła, Pologne), dédiée à Frédéric Chopin
 ʽClaude Brasseur’ ((2006, Meilland), dédiée à Claude Brasseur
 ʽClaude Monet’ (1992, Delbard)
@@ -674,7 +692,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -692,15 +710,17 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>ʽDaniel Gélin’ (Meilland), dédiée à Daniel Gélin
 ʽDee Dee Bridgewater’ (2003, Meilland), dédiée à Dee Dee Bridgewater
-ʽPrincess of Wales’, dédiée à Diana Spencer[4].
-ʽDolly Parton’[5], dédiée à Dolly Parton
-ʽDocteur Eckener’/ʽDr. Eckener’ (Berger &amp; Teschendorff, 1930)[6]
+ʽPrincess of Wales’, dédiée à Diana Spencer.
+ʽDolly Parton’, dédiée à Dolly Parton
+ʽDocteur Eckener’/ʽDr. Eckener’ (Berger &amp; Teschendorff, 1930)
 ʽDuc d'Aremberg’, dédiée à Engelbert-Auguste d'Arenberg (1836, Louis Joseph Ghislain Parmentier, Belgique)
-ʽDuc d'Édimbourg’, créée par la Royal Horticultural Society et offerte à Élisabeth II en souvenir de Philip Mountbatten[7].
+ʽDuc d'Édimbourg’, créée par la Royal Horticultural Society et offerte à Élisabeth II en souvenir de Philip Mountbatten.
 ʽDuchesse de Galliera’ (1847, Portemer père)
 ʽDuchesse de Montebello’ (1824, Jean Laffay)</t>
         </is>
@@ -712,7 +732,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -730,7 +750,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>ʽEdgar Degas’ (1994, Delbard), dédiée à Edgar Degas
 ʽÉdith Piaf’ (2007, Meilland), dédiée à Édith Piaf
@@ -746,7 +768,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -764,7 +786,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>ʽFalstaff’ (1999, Austin, Angleterre), dédiée à Falstaff
 ʽFanny Ardant’, baptisée à Saint-Yrieix-sous-Aixe (87), dédiée à l'actrice Fanny Ardant
@@ -790,7 +814,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -808,10 +832,12 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ʽGabriela Sabatini’[8], dédiée à la championne de tennis Gabriela Sabatini
-ʽGénéral Desaix’ (1867, Moreau-Robert)[9], dédiée au général Desaix
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ʽGabriela Sabatini’, dédiée à la championne de tennis Gabriela Sabatini
+ʽGénéral Desaix’ (1867, Moreau-Robert), dédiée au général Desaix
 'Général Galliéni’ (1899, Nabonnand) dédiée à Joseph Gallieni
 ʽGertrude Jekyll’ (1986, David Austin) dédiée à Gertrude Jekyll
 ʽGina Lollobrigida’ (1989, Meilland), dédiée à l'actrice Gina Lollobrigida
@@ -827,7 +853,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -845,7 +871,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>ʽHenri de Toulouse-Lautrec’ (1993, Meilland), dédiée à Henri de Toulouse-Lautrec
 ʽHenri Matisse’ (Delbard), dédiée à Henri Matisse
@@ -861,7 +889,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,7 +907,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>ʽImpératrice Eugénie’ (1855, Béluze), dédiée à Eugénie de Montijo
 ʽImpératrice Eugénie’ (1856, Guillot)
@@ -896,7 +926,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,7 +944,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>ʽJacques Cartier’ (1868, Moreau &amp; Robert), dédiée à Jacques Cartier
 ’Jacques Prévert’ (Meilland), dédiée à Jacques Prévert
@@ -923,7 +955,7 @@
 ʽJohn F. Kennedy’, dédiée à John F. Kennedy
 ʽImpératrice Joséphine’, hybride de Rosa gallica (Descemet), dédiée à Joséphine de Beauharnais
 ʽJudy Garland’, dédiée à Judy Garland
-ʽJulie Pietri’ (2018, André Ève), dédiée à Julie Pietri[10]
+ʽJulie Pietri’ (2018, André Ève), dédiée à Julie Pietri
 ʽJuliette Gréco’ (1999, Delbard), dédiée à Juliette Gréco</t>
         </is>
       </c>
@@ -934,7 +966,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -952,7 +984,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>ʽKaiserin Auguste Viktoria’ (1891, Lambert), dédiée à l'impératrice Augusta-Victoria</t>
         </is>
@@ -964,7 +998,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -982,7 +1016,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>ʽLeonardo da Vinci’ (1994, Meilland), dédiée à Léonard de Vinci
 ʽLéon XIII’ (1890, Soupert &amp; Notting), dédiée à Léon XIII
@@ -1001,7 +1037,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1019,10 +1055,12 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>ʽMadame Isaac Pereire’ (1880, Garçon), dédiée à Mme Isaac Pereire
-ʽMadame Norbert Levavasseur’ (1904) issu d'un croisement ʽCrimson Rambler’ (Turner, 1893) × ʽGloire des Polyanthas’ (Guillot, 1887)[11].
+ʽMadame Norbert Levavasseur’ (1904) issu d'un croisement ʽCrimson Rambler’ (Turner, 1893) × ʽGloire des Polyanthas’ (Guillot, 1887).
 ʽMadame Segond-Weber’ (1907, Soupert &amp; Notting), dédiée à Caroline-Eugénie Segond-Weber
 ʽMadame Tchang Kaï-chek’ (1942, Carl G. Duehrsen), dédiée à Song Meiling
 ʽMarcel Pagnol’ (1996, Meilland), dédiée à Marcel Pagnol
@@ -1046,7 +1084,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1064,7 +1102,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>ʽNancy Reagan’ (2005, Zary)
 ʽNiccolò Paganini’ (1991, Meilland)
@@ -1078,7 +1118,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1096,7 +1136,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>ʽOdette de Champdivers’ (~1848)
 ʽOdette Joyeux’ (1959, Robichon)
@@ -1111,7 +1153,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1129,7 +1171,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>ʽPablo Picasso’
 ʽPaul Bocuse’ (1992, Massad pour les roseraies Guillot)
@@ -1156,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1174,7 +1218,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>ʽQueen Elizabeth’ (1954, Lammerts, États-Unis), dédiée à la reine Elizabeth II. Nommée au titre de la « rose favorite du monde » en 1978</t>
         </is>
@@ -1186,7 +1232,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1204,7 +1250,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>ʽRabelais II’ (1997, Meilland)
 ʽRégine Crespin’ (1990, Delbard)
@@ -1213,7 +1261,7 @@
 ʽRené Goscinny’ (Meilland)
 ʽRobin Hood’ (1927, Pemberton)
 ʽRodin’ (Meilland)
-ʽRonald Reagan’ (2005, Zary)[12]
+ʽRonald Reagan’ (2005, Zary)
 ʽRoosevelt’ (1922, Lambert, Allemagne)
 ʽRosie O'Donnell’ (1998, Winchell)
 ʽRubens’ (1859, Moreau-Robert)</t>
@@ -1226,7 +1274,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1244,7 +1292,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>ʽSonia Rykiel’ (1991, Massad)
 ʽSouvenir du Président Carnot’ (1894, Joseph Pernet-Ducher), dédiée à Marie François Sadi Carnot
@@ -1260,7 +1310,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1278,7 +1328,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>ʽTaglioni’ (1833 ou avant)
 ʽTchaïkovski’ (Meilland)
@@ -1292,7 +1344,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1310,7 +1362,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>ʽVictor Hugo’ (Meilland)</t>
         </is>
@@ -1322,7 +1376,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1340,7 +1394,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>ʽWilliam Shakespeare’ (1987, Austin)</t>
         </is>
@@ -1352,7 +1408,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cultivars_de_roses_portant_des_noms_de_c%C3%A9l%C3%A9brit%C3%A9s</t>
+          <t>Cultivars_de_roses_portant_des_noms_de_célébrités</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1370,7 +1426,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>ʽYves Piaget’</t>
         </is>
